--- a/biology/Botanique/Crepidotaceae/Crepidotaceae.xlsx
+++ b/biology/Botanique/Crepidotaceae/Crepidotaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Crepidotaceae sont une famille de champignons basidiomycètes du clade VI Agaricoïde de l'ordre des Agaricales.
 </t>
@@ -511,9 +523,11 @@
           <t>Spécificité de la famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Crepidotaceae ont récemment subi une révision fondée sur les analyses phylogénétiques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Crepidotaceae ont récemment subi une révision fondée sur les analyses phylogénétiques.
 Les caractères suivants sont typiques de cette famille saprotrophes, ligneuses ou herbacées et gymnocarpique (ayant les apothécies ouvertes et attachées à la surface des thalles).
 Les sporées vont du jaune pâle au brun, leur cuticule est simple (bien que certains peuvent avoir un pileocystidia. Les cheilocystides sont toujours présentes et les spores sont lisses ou ornés, mais jamais anguleux ou réticulés.
 </t>
@@ -544,7 +558,9 @@
           <t>Phylogramme des Crepidotaceae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricales
@@ -553,7 +569,7 @@
 ...
 Inocybaceae
 Crepidotaceae
-Neopaxillus - Position probable[2]
+Neopaxillus - Position probable
 Pleuroflammula
 Pleuroflammula flammea
 Simocybe
